--- a/part2/newData.xlsx
+++ b/part2/newData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fullstackmachine/Desktop/BevCode/224_HPC/hw/hw2/part2/submit_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babadine\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="480" windowWidth="26180" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,12 +167,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -185,117 +188,282 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v. Processor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MS</c:v>
+            <c:v>Joe</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$10,Sheet1!$E$10,Sheet1!$F$10)</c:f>
+              <c:f>Sheet1!$I$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.820103834196891</c:v>
+                  <c:v>1.3146182724252493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.917459077208439</c:v>
+                  <c:v>0.76125452096960378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.09612216066482</c:v>
+                  <c:v>0.97319257255287761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-916A-405C-BFFF-CF1F828CD06F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Joe</c:v>
+            <c:v>Susie</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$10,Sheet1!$I$10,Sheet1!$J$10)</c:f>
+              <c:f>Sheet1!$N$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.314618272425249</c:v>
+                  <c:v>1.4988640151515151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.761254520969604</c:v>
+                  <c:v>1.3194401467155721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.973192572552878</c:v>
+                  <c:v>1.5120370653419948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-916A-405C-BFFF-CF1F828CD06F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Susie</c:v>
+            <c:v>MS</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$L$10,Sheet1!$M$10,Sheet1!$N$10)</c:f>
+              <c:f>Sheet1!$D$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.498864015151515</c:v>
+                  <c:v>0.82010383419689126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.319440146715572</c:v>
+                  <c:v>0.91745907720843944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.512037065341995</c:v>
+                  <c:v>1.0961221606648197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-916A-405C-BFFF-CF1F828CD06F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -305,18 +473,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="972936304"/>
-        <c:axId val="972938352"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="805892528"/>
+        <c:axId val="805893776"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="972936304"/>
+        <c:axId val="805892528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Processors</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -353,7 +583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972938352"/>
+        <c:crossAx val="805893776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -361,7 +591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="972938352"/>
+        <c:axId val="805893776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,6 +611,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Ts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> / Tp</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -411,8 +703,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972936304"/>
-        <c:crossesAt val="1.0"/>
+        <c:crossAx val="805892528"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -423,6 +715,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -461,7 +785,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -495,7 +819,612 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speedup</a:t>
+              <a:t>Efficiency v.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Processor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.65730913621262466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7578407560600236E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0412267892277425E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12AE-4029-ADCA-4BD0211A7B8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74943200757575756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2465009169723255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7251158291937337E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12AE-4029-ADCA-4BD0211A7B8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.41005191709844563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7341192325527465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4253817520775616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12AE-4029-ADCA-4BD0211A7B8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="243674144"/>
+        <c:axId val="243672896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="243674144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t> Number of Processors</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243672896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="243672896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Spedup / Number of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243674144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time v. Processor (0.5k)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -539,6 +1468,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -563,31 +1495,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$10:$J$10</c:f>
+              <c:f>Sheet1!$D$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.314618272425249</c:v>
+                  <c:v>0.30359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.761254520969604</c:v>
+                  <c:v>0.33920000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.973192572552878</c:v>
+                  <c:v>0.54699999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DC8-480F-98D1-50088D9028DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Susie</c:v>
+            <c:v>Joe</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -613,25 +1565,115 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$10:$N$10</c:f>
+              <c:f>Sheet1!$I$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.498864015151515</c:v>
+                  <c:v>0.19519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.319440146715572</c:v>
+                  <c:v>0.38899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.512037065341995</c:v>
+                  <c:v>0.62780000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DC8-480F-98D1-50088D9028DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DC8-480F-98D1-50088D9028DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -643,16 +1685,78 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="996476400"/>
-        <c:axId val="996960176"/>
+        <c:axId val="807497264"/>
+        <c:axId val="807498512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="996476400"/>
+        <c:axId val="807497264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Processors (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -689,7 +1793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996960176"/>
+        <c:crossAx val="807498512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -697,7 +1801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="996960176"/>
+        <c:axId val="807498512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,6 +1821,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Running Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -748,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996476400"/>
+        <c:crossAx val="807497264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -760,6 +1920,1313 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup v. Processor </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(0.5k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74187285902503297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66401120283018855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41175978062157226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66EB-4C98-87BA-C79CF0BB141D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1538555327868854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5790041131105399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35876489327811406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66EB-4C98-87BA-C79CF0BB141D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2582826815642458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94160785953177262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59302948920484466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-66EB-4C98-87BA-C79CF0BB141D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="807497264"/>
+        <c:axId val="807498512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="807497264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Processors (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807498512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="807498512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Ts / Tp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807497264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency v. Processor (0.5k)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.37093642951251649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500700176886784E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2867493144424133E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05D9-4741-8E59-D732AF388AC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.57692776639344268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6187757069408744E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1211402914941064E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05D9-4741-8E59-D732AF388AC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$22:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62914134078212292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8850491220735789E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8532171537651396E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-05D9-4741-8E59-D732AF388AC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="807497264"/>
+        <c:axId val="807498512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="807497264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Processors (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807498512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="807498512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Sp</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> / n</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807497264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -877,8 +3344,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1883,24 +4470,1533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1917,20 +6013,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1940,6 +6036,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814388</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2211,34 +6401,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2251,26 +6441,26 @@
       <c r="F3">
         <v>32</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>16</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="B4" s="1">
         <v>0.76214999999999999</v>
       </c>
@@ -2283,27 +6473,29 @@
       <c r="F4" s="1">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1"/>
+      <c r="I4" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>0.624</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="B5" s="1">
         <v>0.82759000000000005</v>
       </c>
@@ -2316,27 +6508,29 @@
       <c r="F5" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="1"/>
+      <c r="I5" s="1">
         <v>0.63700000000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.94699999999999995</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
         <v>0.56100000000000005</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>0.81916800000000001</v>
       </c>
@@ -2349,27 +6543,29 @@
       <c r="F6" s="1">
         <v>0.64800000000000002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1"/>
+      <c r="I6" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1.079</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>0.57899999999999996</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="B7" s="1">
         <v>0.76251500000000005</v>
       </c>
@@ -2382,27 +6578,29 @@
       <c r="F7" s="1">
         <v>0.74</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1"/>
+      <c r="I7" s="1">
         <v>0.65100000000000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1.107</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>0.60099999999999998</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="B8" s="1">
         <v>0.785578</v>
       </c>
@@ -2415,27 +6613,29 @@
       <c r="F8" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="H8" s="1">
+      <c r="G8" s="1"/>
+      <c r="I8" s="1">
         <v>0.62</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
         <v>0.46300000000000002</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>0.627</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>0.433</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2444,7 +6644,7 @@
         <v>0.7914002</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:N9" si="0">AVERAGE(D4:D8)</f>
+        <f t="shared" ref="D9:P9" si="0">AVERAGE(D4:D8)</f>
         <v>0.96499999999999986</v>
       </c>
       <c r="E9" s="3">
@@ -2456,33 +6656,35 @@
         <v>0.72200000000000009</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>0.60199999999999998</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>1.0395999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>0.81319999999999992</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <f t="shared" si="0"/>
         <v>0.52800000000000002</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <f t="shared" si="0"/>
         <v>0.59979999999999989</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <f t="shared" si="0"/>
         <v>0.52339999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="4" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -2498,33 +6700,33 @@
         <f>0.7914002/F9</f>
         <v>1.0961221606648197</v>
       </c>
-      <c r="H10" s="4">
-        <f>0.7914002/H9</f>
-        <v>1.3146182724252493</v>
-      </c>
       <c r="I10" s="4">
         <f>0.7914002/I9</f>
-        <v>0.76125452096960378</v>
+        <v>1.3146182724252493</v>
       </c>
       <c r="J10" s="4">
         <f>0.7914002/J9</f>
+        <v>0.76125452096960378</v>
+      </c>
+      <c r="K10" s="4">
+        <f>0.7914002/K9</f>
         <v>0.97319257255287761</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4">
-        <f>0.7914002/L9</f>
-        <v>1.4988640151515151</v>
-      </c>
-      <c r="M10" s="4">
-        <f>0.7914002/M9</f>
-        <v>1.3194401467155721</v>
-      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="4">
         <f>0.7914002/N9</f>
+        <v>1.4988640151515151</v>
+      </c>
+      <c r="O10" s="4">
+        <f>0.7914002/O9</f>
+        <v>1.3194401467155721</v>
+      </c>
+      <c r="P10" s="4">
+        <f>0.7914002/P9</f>
         <v>1.5120370653419948</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2540,46 +6742,48 @@
         <f>F10/F3</f>
         <v>3.4253817520775616E-2</v>
       </c>
-      <c r="H11" s="6">
-        <f>H10/H3</f>
-        <v>0.65730913621262466</v>
-      </c>
       <c r="I11" s="6">
         <f>I10/I3</f>
-        <v>4.7578407560600236E-2</v>
+        <v>0.65730913621262466</v>
       </c>
       <c r="J11" s="6">
         <f>J10/J3</f>
+        <v>4.7578407560600236E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <f>K10/K3</f>
         <v>3.0412267892277425E-2</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6">
-        <f>L10/L3</f>
-        <v>0.74943200757575756</v>
-      </c>
-      <c r="M11" s="6">
-        <f>M10/M3</f>
-        <v>8.2465009169723255E-2</v>
-      </c>
+      <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f>N10/N3</f>
+        <v>0.74943200757575756</v>
+      </c>
+      <c r="O11" s="6">
+        <f>O10/O3</f>
+        <v>8.2465009169723255E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <f>P10/P3</f>
         <v>4.7251158291937337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="7"/>
+    <row r="12" spans="1:16" s="6" customFormat="1">
+      <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="D14">
         <v>2</v>
       </c>
@@ -2589,27 +6793,27 @@
       <c r="F14">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>32</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14">
+      <c r="M14" s="1"/>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>16</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="B15" s="1">
         <v>0.22650999999999999</v>
       </c>
@@ -2622,27 +6826,29 @@
       <c r="F15" s="1">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="1"/>
+      <c r="I15" s="1">
         <v>0.187</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.38800000000000001</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.57899999999999996</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
         <v>0.192</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>0.247</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="B16" s="1">
         <v>0.21909699999999999</v>
       </c>
@@ -2655,27 +6861,29 @@
       <c r="F16" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="1"/>
+      <c r="I16" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
         <v>0.19400000000000001</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="B17">
         <v>0.23159099999999999</v>
       </c>
@@ -2688,27 +6896,29 @@
       <c r="F17" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="G17" s="1"/>
+      <c r="I17" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.36099999999999999</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.57099999999999995</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>0.23200000000000001</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="B18">
         <v>0.22505800000000001</v>
       </c>
@@ -2721,27 +6931,29 @@
       <c r="F18" s="1">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.41</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="1">
         <v>0.19700000000000001</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="B19">
         <v>0.22390699999999999</v>
       </c>
@@ -2755,27 +6967,29 @@
       <c r="F19" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="H19" s="1">
+      <c r="G19" s="1"/>
+      <c r="I19" s="1">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.63500000000000001</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="1">
         <v>0.28499999999999998</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -2796,33 +7010,35 @@
         <v>0.54699999999999993</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <f t="shared" ref="H20" si="4">AVERAGE(H15:H19)</f>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <f t="shared" ref="I20" si="4">AVERAGE(I15:I19)</f>
         <v>0.19519999999999998</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" ref="I20" si="5">AVERAGE(I15:I19)</f>
+      <c r="J20" s="3">
+        <f t="shared" ref="J20" si="5">AVERAGE(J15:J19)</f>
         <v>0.38899999999999996</v>
       </c>
-      <c r="J20" s="3">
-        <f t="shared" ref="J20" si="6">AVERAGE(J15:J19)</f>
+      <c r="K20" s="3">
+        <f t="shared" ref="K20" si="6">AVERAGE(K15:K19)</f>
         <v>0.62780000000000002</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <f t="shared" ref="L20" si="7">AVERAGE(L15:L19)</f>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20" si="7">AVERAGE(N15:N19)</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="M20" s="3">
-        <f t="shared" ref="M20" si="8">AVERAGE(M15:M19)</f>
+      <c r="O20" s="3">
+        <f t="shared" ref="O20" si="8">AVERAGE(O15:O19)</f>
         <v>0.2392</v>
       </c>
-      <c r="N20" s="3">
-        <f t="shared" ref="N20" si="9">AVERAGE(N15:N19)</f>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20" si="9">AVERAGE(P15:P19)</f>
         <v>0.37979999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="4" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -2838,33 +7054,33 @@
         <f t="shared" si="10"/>
         <v>0.41175978062157226</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21:J21" si="11">0.2252326/H20</f>
+      <c r="I21" s="4">
+        <f t="shared" ref="I21:K21" si="11">0.2252326/I20</f>
         <v>1.1538555327868854</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="11"/>
         <v>0.5790041131105399</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="11"/>
         <v>0.35876489327811406</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4">
-        <f t="shared" ref="L21:N21" si="12">0.2252326/L20</f>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4">
+        <f t="shared" ref="N21:P21" si="12">0.2252326/N20</f>
         <v>1.2582826815642458</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="12"/>
         <v>0.94160785953177262</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <f t="shared" si="12"/>
         <v>0.59302948920484466</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="6" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -2880,42 +7096,39 @@
         <f>F21/F14</f>
         <v>1.2867493144424133E-2</v>
       </c>
-      <c r="H22" s="6">
-        <f>H21/H14</f>
-        <v>0.57692776639344268</v>
-      </c>
       <c r="I22" s="6">
         <f>I21/I14</f>
-        <v>3.6187757069408744E-2</v>
+        <v>0.57692776639344268</v>
       </c>
       <c r="J22" s="6">
         <f>J21/J14</f>
+        <v>3.6187757069408744E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <f>K21/K14</f>
         <v>1.1211402914941064E-2</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6">
-        <f>L21/L14</f>
-        <v>0.62914134078212292</v>
-      </c>
-      <c r="M22" s="6">
-        <f>M21/M14</f>
-        <v>5.8850491220735789E-2</v>
-      </c>
+      <c r="M22" s="7"/>
       <c r="N22" s="6">
         <f>N21/N14</f>
+        <v>0.62914134078212292</v>
+      </c>
+      <c r="O22" s="6">
+        <f>O21/O14</f>
+        <v>5.8850491220735789E-2</v>
+      </c>
+      <c r="P22" s="6">
+        <f>P21/P14</f>
         <v>1.8532171537651396E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.22523260000000001</v>
-      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
